--- a/维护记录.xlsx
+++ b/维护记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,35 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">卫星通信分系统、 北斗定位导航及预警信息分系统、 LTE宽带多媒体集群调度分系统、 计算机网络分系统（含 3G/4G  VPN、有线通信）、 话音调度分系统（VOIP/集群对讲/短波/卫星电话/综合调度设备）、 视音频分系统（含图传、卫星电视）、 电源分系统、 综合保障分系统（辅助装置、集中控制装置等）、 车辆平台及改装分系统、 无人机分系统、 地面站分系统
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将分系统名称单独维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节改动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加简单权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使销售看不到成本价格，并不能导出含成本价格的EXCEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.名称改为设备名称；2，前端显示时个人表的长宽高等的单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -168,14 +197,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,67 +518,97 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="4" width="47.75" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
+    <col min="4" max="4" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="192" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/维护记录.xlsx
+++ b/维护记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,22 @@
   </si>
   <si>
     <t>1.名称改为设备名称；2，前端显示时个人表的长宽高等的单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1=&gt;美元, 2=&gt;欧元,3=&gt;人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pros_flag_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pros_flag_bili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=&gt;无比例， 2=》有比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -611,6 +627,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
